--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">48485e65-f62a-40a7-817b-08afbb4a4de6</t>
   </si>
   <si>
-    <t xml:space="preserve">Menu</t>
+    <t xml:space="preserve">Меню</t>
   </si>
   <si>
     <t xml:space="preserve">Основное меню</t>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">80e17aa6-203a-46f8-a6a1-ae8a9b168416</t>
   </si>
   <si>
-    <t xml:space="preserve">Холоднasdasdые закуски</t>
+    <t xml:space="preserve">Холодные закуски</t>
   </si>
   <si>
     <t xml:space="preserve">К пиву</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Мясная тарелка</t>
   </si>
   <si>
-    <t xml:space="preserve">Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фрукasdasdтов</t>
+    <t xml:space="preserve">Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
   </si>
   <si>
     <t xml:space="preserve">dec1c7c9-79e3-444d-b955-f791f13c4ffd</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">9ad33a1b-5dd7-4b06-9c66-7501b6aec1ee</t>
   </si>
   <si>
-    <t xml:space="preserve">Дайзу sdadрамен</t>
+    <t xml:space="preserve">Дайзу рамен</t>
   </si>
   <si>
     <t xml:space="preserve">Рамен на курином бульоне с куриными подушками и яйцом аджитама, яично-пшеничной лапшой, ростки зелени, грибами муэр и зеленым луком</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">eccbb382-db6a-4f13-b7ba-89d6bb53e1cc</t>
   </si>
   <si>
-    <t xml:space="preserve">SUBMENU</t>
+    <t xml:space="preserve">Алкогольное меню</t>
   </si>
   <si>
     <t xml:space="preserve">Алкогольные напитки</t>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">19b8a421-a52d-4ee3-8679-0cc3e69d2c12</t>
   </si>
   <si>
-    <t xml:space="preserve">dfsdfsdfsdf</t>
+    <t xml:space="preserve">Красные вина</t>
   </si>
   <si>
     <t xml:space="preserve">Для романтичного вечера</t>
@@ -182,171 +182,6 @@
   </si>
   <si>
     <t xml:space="preserve">Это купаж высококачественных солодовых и зерновых виски, выдержанных как минимум в течение 12 лет, что придает напитку роскошные нотки меда, ванили и спелых яблок.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a29a000f-7941-43f9-b15e-5a2154b557dd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Слабо алкогольные напитки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Без описания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3e83f170-f22c-49e4-aa7d-3cae2f2e30f3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATEDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Классическая кола, но без сахара и с говном ++++ UPDATED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">926326c4-a31e-441c-8c1a-71a844c04ddd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Свежевыжитый апельсиновый сок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6704ca0b-a356-499a-b4f2-40fd5d25e06e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лемон грасс с водкой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок лемон грасс, невероятно освежающий и уничтожабщий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ec2bb382-db6a-4f13-b7ba-89d6bb53e1cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вsadasdaторое</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Горячие блюда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sadasda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19b8a425-a52d-4ee3-8679-0cc3e69d2c12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Супы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">для лучшего какания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de5d25d3-1292-483c-af0d-2f428e6bd40c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Борщ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0acb2a68-951a-4de4-8503-590ff14f3aeb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Суп Харчasdasdо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdsadad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34fc3e4a-32ef-4d88-118e-1857e33e333a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шурпа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de5d25d3-1292-483c-af0d-2f428e6bd488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гарнasdasdasdиры</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подливка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3133f170-f18c-49e4-aa7d-3cae2f2e30f3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рагу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92632344-a77e-441c-8c1a-71a844c04ddd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дрясня</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дрисня калссиasdadческая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6704ca14-ab46-499a-b4f2-40fd5d25e06e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Домашняя рыганина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рыганина домашнего приготовления</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3e8ad170-f22c-49e4-aa7d-3cae2f2e3aaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Напитки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HZHZHZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3e8ad170-f22c-49e4-aa7d-3cae2f2e30f3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока Кола Зеро</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Классическая кола, но без сахара </t>
-  </si>
-  <si>
-    <t xml:space="preserve">926fd6c4-a31e-441c-8c1a-71a844c04ddd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Апелсиновый сок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67dfca0b-a356-499a-b4f2-40fd5d25e06e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лемон грасс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67dfca0b-a351-499a-b4f2-40fd5d25e06e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWNEWNEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67dfca0b-a241-499a-b4f2-40fd5d25e06e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND STILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67dfaaab-a351-499a-b4f2-40fd5d25e06e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWNEddadadaWNEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ec2bb382-db6a-aaaa-b7ba-89d6aaaaaaaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вsadasdaтоasdasdasdasdaрое</t>
   </si>
 </sst>
 </file>
@@ -356,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -377,6 +212,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Montserrat"/>
       <family val="0"/>
     </font>
     <font>
@@ -445,7 +287,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -458,7 +300,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,23 +312,31 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -505,11 +359,11 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C16:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.86"/>
@@ -522,579 +376,419 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="7" t="n">
         <v>182.99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="7" t="n">
         <v>215.36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>265.57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>166.47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>168.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>132.88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="3" t="n">
         <v>2700.79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="3" t="n">
         <v>3100.33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="3" t="n">
         <v>1850.42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="3" t="n">
         <v>420.78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="8" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="3" t="n">
         <v>440.11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="3" t="n">
         <v>520.08</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>420.78</v>
-      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>440.11</v>
-      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>520.08</v>
-      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="2"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>300.79</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>99999.5</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>1850.42</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>420.78</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>440.11</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>520.08</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>420.78</v>
-      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C34" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>440.11</v>
-      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>520.08</v>
-      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C36" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>520.08</v>
-      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>520.08</v>
-      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>520.08</v>
-      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="2"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2059,11 +1753,11 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -191,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -212,13 +212,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Montserrat"/>
       <family val="0"/>
     </font>
     <font>
@@ -287,7 +280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -300,11 +293,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -312,31 +301,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -360,10 +341,10 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C16:C18"/>
+      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.86"/>
@@ -376,419 +357,419 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="6" t="n">
         <v>182.99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="6" t="n">
         <v>215.36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>265.57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="2" t="n">
         <v>166.47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="2" t="n">
         <v>168.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="2" t="n">
         <v>132.88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="2" t="n">
         <v>2700.79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="2" t="n">
         <v>3100.33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="2" t="n">
         <v>1850.42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="2" t="n">
         <v>420.78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="2" t="n">
         <v>440.11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="11" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="2" t="n">
         <v>520.08</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="11"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="11"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="11"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="11"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="3"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C34" s="11"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="3"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="11"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="3"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C36" s="11"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="3"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="11"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="3"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="11"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="3"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="3"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
